--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Desktop\selenium\finalAutomationProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F19DE-AD4A-4333-83BA-68B5F47F5251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A5E91-F8A5-4B0E-B9BD-1DD564E43BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -60,9 +60,6 @@
     <t>test@123</t>
   </si>
   <si>
-    <t>alex</t>
-  </si>
-  <si>
     <t>alex1@gmail.com</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>laks</t>
+  </si>
+  <si>
+    <t>aaaa@gmail</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,18 +499,18 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -540,26 +540,25 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1111</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="pavanoltraining@gmail.com" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId4" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId6" display="test@123" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
-    <hyperlink ref="A3" r:id="rId7" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="B2" r:id="rId4" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{AD511443-670C-4E88-8EF3-82FEEA3B4AD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Desktop\selenium\finalAutomationProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A5E91-F8A5-4B0E-B9BD-1DD564E43BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354213E-5A3F-42EC-BCA1-90A42EB0CA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>username</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Invalid</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>test@123</t>
-  </si>
-  <si>
     <t>alex1@gmail.com</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
   </si>
   <si>
     <t>laks</t>
-  </si>
-  <si>
-    <t>aaaa@gmail</t>
   </si>
 </sst>
 </file>
@@ -141,7 +132,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -150,9 +141,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -470,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,10 +484,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -507,10 +495,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>5</v>
@@ -521,31 +509,9 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1111</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -553,12 +519,10 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId4" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A3" r:id="rId5" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{AD511443-670C-4E88-8EF3-82FEEA3B4AD8}"/>
+    <hyperlink ref="B2" r:id="rId3" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexb\Desktop\selenium\finalAutomationProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354213E-5A3F-42EC-BCA1-90A42EB0CA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA99C7F-B058-4CB7-8030-1A176BE1FAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -48,25 +48,31 @@
     <t>Valid</t>
   </si>
   <si>
-    <t>laksh@yahoo.com</t>
-  </si>
-  <si>
     <t>Invalid</t>
   </si>
   <si>
     <t>alex1@gmail.com</t>
   </si>
   <si>
-    <t>test123</t>
-  </si>
-  <si>
     <t>arina@gmail.com</t>
   </si>
   <si>
     <t>arina</t>
   </si>
   <si>
-    <t>laks</t>
+    <t xml:space="preserve">             alex1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            test123</t>
+  </si>
+  <si>
+    <t>test1234</t>
+  </si>
+  <si>
+    <t>moshe@yahoo.com</t>
+  </si>
+  <si>
+    <t>l11111</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,12 +133,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +158,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,35 +505,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -521,8 +553,9 @@
     <hyperlink ref="A4" r:id="rId2" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
     <hyperlink ref="B2" r:id="rId3" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
     <hyperlink ref="A3" r:id="rId4" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A5" r:id="rId5" display="alex1@gmail.com" xr:uid="{87596999-C88F-46D7-A64B-56B0C122C09C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>